--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3505489.85431673</v>
+        <v>3503237.774605522</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103655</v>
+        <v>93.52676208877482</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>10.9378713597429</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>26.28523959833922</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021059958</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>308.8588510116053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>20.80993688633091</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>89.0091061689823</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316079</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716168</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.3436713194226</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>626.3436713194226</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1619.227459603818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1364.542971397931</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1075.12580136097</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>847.1362504629527</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>626.3436713194226</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2746.162315732314</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,31 +4665,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.5608581015648</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1402.991452973352</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1402.991452973352</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1402.991452973352</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1175.001902075335</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.2093229318045</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>869.0763550278969</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>869.0763550278969</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,34 +4887,34 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452619</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718135</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5732,25 +5732,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,25 +5759,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,16 +7017,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,16 +7494,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405077</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>688338.4515082556</v>
+        <v>688338.4515082557</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>746610.604713255</v>
       </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="N4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680583</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680583</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26522,46 +26522,46 @@
         <v>-768179.0601526806</v>
       </c>
       <c r="C6" t="n">
-        <v>560565.685574912</v>
+        <v>560565.6855749118</v>
       </c>
       <c r="D6" t="n">
-        <v>560565.6855749119</v>
+        <v>560565.6855749118</v>
       </c>
       <c r="E6" t="n">
-        <v>308298.6368651874</v>
+        <v>308263.8989397517</v>
       </c>
       <c r="F6" t="n">
-        <v>633711.0986725425</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="G6" t="n">
-        <v>633711.0986725423</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="H6" t="n">
-        <v>633711.0986725424</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="I6" t="n">
-        <v>633711.0986725423</v>
+        <v>633676.3607471068</v>
       </c>
       <c r="J6" t="n">
-        <v>416179.896275265</v>
+        <v>416145.1583498291</v>
       </c>
       <c r="K6" t="n">
-        <v>633711.0986725425</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="L6" t="n">
-        <v>633711.0986725424</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="M6" t="n">
-        <v>548656.0707370305</v>
+        <v>548621.3328115948</v>
       </c>
       <c r="N6" t="n">
-        <v>633711.098672542</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="O6" t="n">
-        <v>633711.0986725425</v>
+        <v>633676.3607471064</v>
       </c>
       <c r="P6" t="n">
-        <v>633711.0986725425</v>
+        <v>633676.3607471066</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.276709502444</v>
+        <v>289.2070795747057</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.41454905009519</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>259.9265986072737</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616622</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>77.37908764444825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>265.401901319282</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>317.8669395727292</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,34 +32315,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,13 +33655,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>748.8168776781358</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>617.4751655948025</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
